--- a/data/InstrumentosCFK.xlsx
+++ b/data/InstrumentosCFK.xlsx
@@ -529,7 +529,7 @@
         <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="H21" t="n">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H46" t="n">
         <v>33</v>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H49" t="n">
         <v>110</v>
@@ -3164,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>23</v>
       </c>
       <c r="H107" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>113</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -3970,7 +3970,7 @@
         <v>22</v>
       </c>
       <c r="H114" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>134</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5331,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H167" t="n">
         <v>50</v>
@@ -5855,7 +5855,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
         <v>34</v>
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
@@ -6481,7 +6481,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>202</v>
       </c>
       <c r="C202" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D202" t="n">
         <v>1</v>
@@ -6695,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="G202" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H202" t="n">
         <v>71</v>
@@ -6884,7 +6884,7 @@
         <v>15</v>
       </c>
       <c r="H208" t="n">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G245" t="n">
         <v>21</v>
